--- a/biology/Microbiologie/Corynophryidae/Corynophryidae.xlsx
+++ b/biology/Microbiologie/Corynophryidae/Corynophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corynophryidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Corynophrya, dérivé du grec κορύνη / korýni, « masse, massue », et οφρύς / ophrys, « cil ; sourcil ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Corynophrya est un suctorien alorique (c'est-à-dire dépourvu de loge ou lorica) dont le corps est sphérique à ovoïde, arrondi en section transversale. Il est porté sur une tige qui est généralement robuste près du zooïde, et se rétrécit à sa base. Généralement épizooïque (c'est-à-dire vivant fixé sur un hôte animal) sur les hydroïdes, les crustacés et les vers polychètes, il a aussi été observé comme épiphyte (c'est-à-dire vivant fixé sur un hôte végétal) sur les algues marines. Il est doté de tentacules préhensiles et rétractiles en un seul groupe limité à la région apicale du corps. Les actinophores (structures de maintien de la rigidité) sont absents. Le macronoyau est généralement sphérique. Les espèces de ce genre se reproduisent par bourgeonnement endogène[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Corynophrya est un suctorien alorique (c'est-à-dire dépourvu de loge ou lorica) dont le corps est sphérique à ovoïde, arrondi en section transversale. Il est porté sur une tige qui est généralement robuste près du zooïde, et se rétrécit à sa base. Généralement épizooïque (c'est-à-dire vivant fixé sur un hôte animal) sur les hydroïdes, les crustacés et les vers polychètes, il a aussi été observé comme épiphyte (c'est-à-dire vivant fixé sur un hôte végétal) sur les algues marines. Il est doté de tentacules préhensiles et rétractiles en un seul groupe limité à la région apicale du corps. Les actinophores (structures de maintien de la rigidité) sont absents. Le macronoyau est généralement sphérique. Les espèces de ce genre se reproduisent par bourgeonnement endogène.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corynophrya est un genre principalement marin[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corynophrya est un genre principalement marin,.
 </t>
         </is>
       </c>
@@ -604,12 +622,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 mai 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 mai 2023) :
 Andrusovia
 Andrusoviella Dovgal, 2005
-Corynophrya (Hartog, 1902) Curds, 1987 nomen nudum validé par Curds[1]
+Corynophrya (Hartog, 1902) Curds, 1987 nomen nudum validé par Curds
 Espèce type : Corynophrya lyngbyi (Ehrenberg, 1833) Curds, 1987
 Synonyme : Acineta lyngbyi Ehrenberg, 1833</t>
         </is>
@@ -639,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Corynophryidae Jankowksi, 1981[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Corynophryidae Jankowksi, 1981.
 </t>
         </is>
       </c>
